--- a/Saved_file/Giang/2026_01/work_logs_Giang_2026_01.xlsx
+++ b/Saved_file/Giang/2026_01/work_logs_Giang_2026_01.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Fraud_Events" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Mouse_Details" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Browser_Time" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Browser_Sessions" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1136,7 +1136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2646,6 +2646,104 @@
       </c>
       <c r="Z15" t="n">
         <v>0.004</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-07 10:39:58</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.005</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20260107_103934</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10:39:58</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>3747</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3747</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8284.639999999999</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7338</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2598</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="S16" t="n">
+        <v>722.17</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="U16" t="n">
+        <v>639.65</v>
+      </c>
+      <c r="V16" t="n">
+        <v>226.47</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.005</v>
       </c>
     </row>
   </sheetData>
@@ -2659,7 +2757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2670,65 +2768,40 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Timestamp</t>
+          <t>Session_ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Event_Type</t>
+          <t>User</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Session_Start</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Tab_Name</t>
+          <t>Session_End</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Start_Time</t>
+          <t>Total_Seconds</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>End_Time</t>
+          <t>Total_Time</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Duration_Seconds</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>Duration_Formatted</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Session_ID</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
@@ -2737,122 +2810,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-07 09:34:53</t>
+          <t>20260107_103934</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BROWSER_START</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2026-01-07 10:39:40</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Browser Session</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2026-01-07 09:34:51</t>
-        </is>
+          <t>2026-01-07 10:39:55</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>15.244364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-01-07 09:34:51</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+          <t>00:00:15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Giang</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>20260107_093445</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>09:34:53</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Browser_Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2026-01-07 09:34:59</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BROWSER_END</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Browser Session</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2026-01-07 09:34:51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2026-01-07 09:34:59</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>8.800146</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>00:00:08</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Giang</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>20260107_093445</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>09:34:59</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Browser_Time</t>
+          <t>Browser_Session</t>
         </is>
       </c>
     </row>
